--- a/Document/Table_PreSale.xlsx
+++ b/Document/Table_PreSale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>

--- a/Document/Table_PreSale.xlsx
+++ b/Document/Table_PreSale.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
@@ -2104,20 +2104,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.28515625" style="7" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" style="5" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="5" hidden="1" customWidth="1"/>
@@ -2511,7 +2512,7 @@
         <v xml:space="preserve"> PreSaleNo  Varchar2(20) ,</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>2</v>
       </c>
